--- a/scheme/Sisseg/issues_metadados_sisseg.xlsx
+++ b/scheme/Sisseg/issues_metadados_sisseg.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="0_SCHEMA_METADATA" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1_ISSUES" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2_SCHEME_MEASURES" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3_MODEL_MEASURES" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="4_MODEL_METRICS" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SCHEME_MEASURES" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="METADATA_ISSUES" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="METADATA_MEASURES" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="METADATA_METRICS" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18388,7 +18388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18399,3556 +18399,94 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>rule</t>
+          <t>Indicator</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>desc</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>owner</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>column</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>constraint_name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>length</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>limit</t>
+          <t>Value</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD08</t>
+          <t>MQMS01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MLOG$_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>SNAPTIME$$</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Total number of tables</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMD08</t>
+          <t>MQMS02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MLOG$_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>DMLTYPE$$</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>Total number of columns</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>288</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMD08</t>
+          <t>MQMS03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>MLOG$_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>OLD_NEW$$</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t>Total number of primary key</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMD08</t>
+          <t>MQMS04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MLOG$_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CHANGE_VECTOR$$</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+          <t>Total number of foreign key</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMD08</t>
+          <t>MQMS05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MLOG$_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>XID$$</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MLOG$_TIPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SNAPTIME$$</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>MLOG$_TIPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>DMLTYPE$$</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>MLOG$_TIPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>OLD_NEW$$</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>MLOG$_TIPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>CHANGE_VECTOR$$</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>MLOG$_TIPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>XID$$</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>MLOG$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SNAPTIME$$</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>MLOG$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>DMLTYPE$$</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>MLOG$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>OLD_NEW$$</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>MLOG$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>CHANGE_VECTOR$$</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>MLOG$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>XID$$</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>RUPD$_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>DMLTYPE$$</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>RUPD$_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>SNAPID</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>RUPD$_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>CHANGE_VECTOR$$</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>RUPD$_TIPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>DMLTYPE$$</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>RUPD$_TIPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>SNAPID</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>RUPD$_TIPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>CHANGE_VECTOR$$</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>RUPD$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>DMLTYPE$$</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>RUPD$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>SNAPID</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>RUPD$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>CHANGE_VECTOR$$</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>MQMD08</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard column prefixes</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>SISTEMA</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>PLATAFORMA</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>ACAO_DEFAULT</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>COD_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>ACAO_DEFAULT</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>DSC_ACAO</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>DSC_ESTADO_ANTES</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>DSC_ESTADO_DEPOIS</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>AUDITORIA</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>SEQ_ACESSO</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>BLOQUEIO_ACAO_DEPENDENTE</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>SEQ_BLOQ_ACAO_DEPENDENTE</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>GRUPO</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>SEQ_ROLE</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>GRUPO_INTERFACE_PERMISSAO</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>SEQ_GRUPO_INTER_PERMISSAO</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>GRUPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>SEQ_GRUPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>GRUPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>SEQ_SISTEMA</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>HIST_SENHA_USUARIO</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>SEQ_HIST_SENHA_USUARIO</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>INTERFACE_ACAO_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>DSC_REQUISICAO</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>INTERFACE_ACAO_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>DSC_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>MLOG$_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>COD_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>MLOG$_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>SNAPTIME$$</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>MLOG$_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>DMLTYPE$$</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>MLOG$_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>OLD_NEW$$</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>MLOG$_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>CHANGE_VECTOR$$</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>MLOG$_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>XID$$</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>MLOG$_TIPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>SEQ_TIPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>MLOG$_TIPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>SNAPTIME$$</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>MLOG$_TIPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>DMLTYPE$$</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>MLOG$_TIPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>OLD_NEW$$</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>MLOG$_TIPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>CHANGE_VECTOR$$</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>MLOG$_TIPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>XID$$</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>MLOG$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>MLOG$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>SNAPTIME$$</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>MLOG$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>DMLTYPE$$</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>MLOG$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>OLD_NEW$$</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>MLOG$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>CHANGE_VECTOR$$</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>MLOG$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>XID$$</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>DSC_CLASSE_SENHA</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>DSC_URL_LDAP</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>DSC_SERVIDOR_EMAIL</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>PERFIL_GRUPO</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>SEQ_PERFIL_GRUPO</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>ROLE</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>SEQ_ROLE</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>ROLE</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>NOM_ROLE</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>ROLE</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>DSC_SENHA_ROLE</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>RUPD$_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>COD_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>RUPD$_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>DMLTYPE$$</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>RUPD$_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>SNAPID</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>RUPD$_PARAMETRO</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>CHANGE_VECTOR$$</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>RUPD$_TIPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>SEQ_TIPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>RUPD$_TIPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>DMLTYPE$$</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>RUPD$_TIPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>SNAPID</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>RUPD$_TIPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>CHANGE_VECTOR$$</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>RUPD$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>RUPD$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>DMLTYPE$$</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>RUPD$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>SNAPID</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>RUPD$_USUARIO</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>CHANGE_VECTOR$$</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>SISTEMA</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>STA_SISTEMA_SEG</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>SOLICITACAO</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>NUM_PERSISTENCIA</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>USUARIO_BKP2</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>USUARIO_BKP2</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>NOM_USUARIO</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>USUARIO_BKP2</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>NUM_MATRICULA</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>USUARIO_BKP2</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>COD_CPF</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>USUARIO_BKP2</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>COD_ORGAO_LOCAL</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>USUARIO_BKP2</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>SEQ_TIPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>USUARIO_BKP2</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>SEQ_CARGO_FUNCAO_CARREIRA</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>USUARIO_BKP2</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>SEQ_CARGO_FUNCAO_COMISSAO</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>USUARIO_BKP2</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO_MESTRE</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>USUARIO_BKP2</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>STA_USUARIO</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>USUARIO_BKP2</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>DAT_INCLUSAO_USUARIO</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>USUARIO_BKP2</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>NUM_TELEFONE</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>USUARIO_BKP2</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>DSC_SENHA</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>USUARIO_BKP2</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>DAT_EXPIRACAO_SENHA</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>USUARIO_BKP2</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>NOM_EMAIL</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>USUARIO_BKP2</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>DAT_SITUACAO_USUARIO</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>USUARIO_BKP2</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>DSC_MOTIVO_SITUACAO</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>USUARIO_BKP2</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>STA_INTEGRADO</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>USUARIO_BKP2</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>DAT_DESBLOQUEIO_CADASTRO</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>USUARIO_BKP2</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>SEQ_TERMO_DESBLOQUEIO</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>USUARIO_BKP2</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>DAT_ULTIMO_LOGON</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>USUARIO_BKP2</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>NUM_VIOLACOES</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>USUARIO_LOG_VIOLACAO</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>NOM_HOST_NAME</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>VW_CARGO_FUNCAO</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>SEQ_CARGO_FUNCAO</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>VW_CARGO_FUNCAO</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>COD_CARGO_FUNCAO</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>VW_CARGO_FUNCAO</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>DSC_CARGO_FUNCAO</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>VW_CARGO_FUNCAO</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>TIP_CARGO_FUNCAO</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>VW_CARGO_FUNCAO</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>NOM_SIMBOLOGIA</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>VW_ORGAO_LOCAL</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>COD_ORGAO_LOCAL</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>VW_ORGAO_LOCAL</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>DSC_ORGAO_LOCAL</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>MQMD10</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Total number of tables with column names without comments</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>VW_ORGAO_LOCAL</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>DAT_DESATIVACAO</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>GRUPO_INTERFACE_PERMISSAO</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>SEQ_ACAO</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>GRUPO_INTERFACE_PERMISSAO_UK1</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>GRUPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>SYS_C0059113</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>GRUPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO_INC</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>SYS_C0059115</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>MQMD12</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>SISTEMA</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>SEQ_SERVIDOR</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>SYS_C0059173</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>MQMD13</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard unique key prefixes</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>GRUPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>SEQ_USUARIO</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>UK_GRUPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>MQMD13</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard unique key prefixes</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>GRUPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>DAT_EXCLUSAO</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>UK_GRUPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>MQMD13</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard unique key prefixes</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>GRUPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>SEQ_SISTEMA</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>UK_GRUPO_USUARIO</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>MQMD13</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard unique key prefixes</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>SISSEG</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>SISTEMA</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>NOM_SISTEMA</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>UK_NOM_SISTEMA</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
+          <t>Total number of unique key</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21961,7 +18499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21972,94 +18510,3556 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Indicator</t>
+          <t>rule</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>desc</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>owner</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>column</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>constraint_name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>limit</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD01</t>
+          <t>MQME12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>43</v>
-      </c>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MLOG$_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SNAPTIME$$</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMD02</t>
+          <t>MQME12</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of columns</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>288</v>
-      </c>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MLOG$_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DMLTYPE$$</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMD03</t>
+          <t>MQME12</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Total number of primary key</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MLOG$_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>OLD_NEW$$</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMD04</t>
+          <t>MQME12</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Total number of foreign key</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>67</v>
-      </c>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MLOG$_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CHANGE_VECTOR$$</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMD05</t>
+          <t>MQME12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Total number of unique key</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MLOG$_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>XID$$</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MLOG$_TIPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SNAPTIME$$</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MLOG$_TIPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DMLTYPE$$</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MLOG$_TIPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>OLD_NEW$$</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MLOG$_TIPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CHANGE_VECTOR$$</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>MLOG$_TIPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>XID$$</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MLOG$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SNAPTIME$$</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MLOG$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DMLTYPE$$</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MLOG$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>OLD_NEW$$</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MLOG$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>CHANGE_VECTOR$$</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MLOG$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>XID$$</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>RUPD$_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>DMLTYPE$$</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>RUPD$_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SNAPID</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>RUPD$_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>CHANGE_VECTOR$$</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>RUPD$_TIPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>DMLTYPE$$</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>RUPD$_TIPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SNAPID</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>RUPD$_TIPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>CHANGE_VECTOR$$</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>RUPD$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>DMLTYPE$$</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>RUPD$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SNAPID</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>RUPD$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>CHANGE_VECTOR$$</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MQME12</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard column prefixes</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SISTEMA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>PLATAFORMA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ACAO_DEFAULT</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>COD_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ACAO_DEFAULT</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>DSC_ACAO</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>DSC_ESTADO_ANTES</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>DSC_ESTADO_DEPOIS</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>AUDITORIA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>SEQ_ACESSO</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>BLOQUEIO_ACAO_DEPENDENTE</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>SEQ_BLOQ_ACAO_DEPENDENTE</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GRUPO</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>SEQ_ROLE</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GRUPO_INTERFACE_PERMISSAO</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>SEQ_GRUPO_INTER_PERMISSAO</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>GRUPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>SEQ_GRUPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GRUPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>SEQ_SISTEMA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>HIST_SENHA_USUARIO</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>SEQ_HIST_SENHA_USUARIO</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>INTERFACE_ACAO_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>DSC_REQUISICAO</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>INTERFACE_ACAO_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>DSC_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>MLOG$_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>COD_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>MLOG$_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>SNAPTIME$$</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>MLOG$_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>DMLTYPE$$</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>MLOG$_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>OLD_NEW$$</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>MLOG$_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>CHANGE_VECTOR$$</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>MLOG$_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>XID$$</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>MLOG$_TIPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>SEQ_TIPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>MLOG$_TIPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>SNAPTIME$$</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>MLOG$_TIPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>DMLTYPE$$</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>MLOG$_TIPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>OLD_NEW$$</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>MLOG$_TIPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>CHANGE_VECTOR$$</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>MLOG$_TIPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>XID$$</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>MLOG$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>SEQ_USUARIO</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>MLOG$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>SNAPTIME$$</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>MLOG$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>DMLTYPE$$</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>MLOG$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>OLD_NEW$$</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>MLOG$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>CHANGE_VECTOR$$</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>MLOG$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>XID$$</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>DSC_CLASSE_SENHA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>DSC_URL_LDAP</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>DSC_SERVIDOR_EMAIL</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>PERFIL_GRUPO</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>SEQ_PERFIL_GRUPO</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>ROLE</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>SEQ_ROLE</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>ROLE</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NOM_ROLE</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>ROLE</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>DSC_SENHA_ROLE</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>RUPD$_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>COD_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>RUPD$_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>DMLTYPE$$</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>RUPD$_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>SNAPID</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>RUPD$_PARAMETRO</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>CHANGE_VECTOR$$</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>RUPD$_TIPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>SEQ_TIPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>RUPD$_TIPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>DMLTYPE$$</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>RUPD$_TIPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>SNAPID</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>RUPD$_TIPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>CHANGE_VECTOR$$</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>RUPD$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>SEQ_USUARIO</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>RUPD$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>DMLTYPE$$</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>RUPD$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>SNAPID</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>RUPD$_USUARIO</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>CHANGE_VECTOR$$</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>SISTEMA</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>STA_SISTEMA_SEG</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>SOLICITACAO</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NUM_PERSISTENCIA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>USUARIO_BKP2</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>SEQ_USUARIO</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>USUARIO_BKP2</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NOM_USUARIO</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>USUARIO_BKP2</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NUM_MATRICULA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>USUARIO_BKP2</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>COD_CPF</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>USUARIO_BKP2</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>COD_ORGAO_LOCAL</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>USUARIO_BKP2</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>SEQ_TIPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>USUARIO_BKP2</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>SEQ_CARGO_FUNCAO_CARREIRA</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>USUARIO_BKP2</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>SEQ_CARGO_FUNCAO_COMISSAO</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>USUARIO_BKP2</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>SEQ_USUARIO_MESTRE</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>USUARIO_BKP2</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>STA_USUARIO</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>USUARIO_BKP2</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>DAT_INCLUSAO_USUARIO</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>USUARIO_BKP2</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>NUM_TELEFONE</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>USUARIO_BKP2</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>DSC_SENHA</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>USUARIO_BKP2</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>DAT_EXPIRACAO_SENHA</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>USUARIO_BKP2</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NOM_EMAIL</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>USUARIO_BKP2</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>DAT_SITUACAO_USUARIO</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>USUARIO_BKP2</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>DSC_MOTIVO_SITUACAO</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>USUARIO_BKP2</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>STA_INTEGRADO</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>USUARIO_BKP2</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>DAT_DESBLOQUEIO_CADASTRO</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>USUARIO_BKP2</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>SEQ_TERMO_DESBLOQUEIO</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>USUARIO_BKP2</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>DAT_ULTIMO_LOGON</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>USUARIO_BKP2</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>NUM_VIOLACOES</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>USUARIO_LOG_VIOLACAO</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>NOM_HOST_NAME</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>VW_CARGO_FUNCAO</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>SEQ_CARGO_FUNCAO</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>VW_CARGO_FUNCAO</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>COD_CARGO_FUNCAO</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>VW_CARGO_FUNCAO</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>DSC_CARGO_FUNCAO</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>VW_CARGO_FUNCAO</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>TIP_CARGO_FUNCAO</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>VW_CARGO_FUNCAO</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>NOM_SIMBOLOGIA</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>VW_ORGAO_LOCAL</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>COD_ORGAO_LOCAL</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>VW_ORGAO_LOCAL</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>DSC_ORGAO_LOCAL</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>MQME01</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Columns without comments</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>VW_ORGAO_LOCAL</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>DAT_DESATIVACAO</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>GRUPO_INTERFACE_PERMISSAO</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>SEQ_ACAO</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>GRUPO_INTERFACE_PERMISSAO_UK1</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>GRUPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>SEQ_USUARIO</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>SYS_C0059113</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>GRUPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>SEQ_USUARIO_INC</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>SYS_C0059115</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>MQME15</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard foreign key prefixes</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>SISTEMA</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>SEQ_SERVIDOR</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>SYS_C0059173</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>MQME16</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard unique key prefixes</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>GRUPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>SEQ_USUARIO</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>UK_GRUPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>MQME16</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard unique key prefixes</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>GRUPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>DAT_EXCLUSAO</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>UK_GRUPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>MQME16</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard unique key prefixes</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>GRUPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>SEQ_SISTEMA</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>UK_GRUPO_USUARIO</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>MQME16</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Total number of tables with non-standard unique key prefixes</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>SISSEG</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>SISTEMA</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>NOM_SISTEMA</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>UK_NOM_SISTEMA</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22072,7 +22072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22100,61 +22100,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMD08</t>
+          <t>MQME00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard column prefixes</t>
+          <t>Total number of columns</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMD10</t>
+          <t>MQMEA1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of tables with column names without comments</t>
+          <t>Total number of length-required columns</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMD12</t>
+          <t>MQMEA2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Total number of tables with non-standard foreign key prefixes</t>
+          <t>Total number of NUMBER columns</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MQMD13</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Total number of tables with non-standard unique key prefixes</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -22168,7 +22153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22196,29 +22181,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IQMD01</t>
+          <t>IQME01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Table names in singular</t>
+          <t>Columns with comments</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>71.18%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IQMD02</t>
+          <t>IQME02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Table names with recommended size</t>
+          <t>Columns with data type</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -22230,29 +22215,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IQMD03</t>
+          <t>IQME03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Table columns with correct prefixes</t>
+          <t>Length-required columns with data length</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>91.32%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IQMD04</t>
+          <t>IQME04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Table columns with recommend size</t>
+          <t>NUMBER columns with valid scale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -22264,29 +22249,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IQMD05</t>
+          <t>IQME05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Table columns with comments</t>
+          <t>Columns with valid num_distinct</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>71.18%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IQMD06</t>
+          <t>IQME06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Table with standard PK prefixes</t>
+          <t>Columns with valid num_nulls</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -22298,34 +22283,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IQMD07</t>
+          <t>IQME07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Table with standard FK prefixes</t>
+          <t>Columns with valid density</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>94.03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>IQMD08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Table with standard UK prefixes</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>42.86%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>

--- a/scheme/Sisseg/issues_metadados_sisseg.xlsx
+++ b/scheme/Sisseg/issues_metadados_sisseg.xlsx
@@ -18416,7 +18416,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQMS01</t>
+          <t>MQME001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -18431,7 +18431,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMS02</t>
+          <t>MQME002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -18446,7 +18446,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQMS03</t>
+          <t>MQME003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -18461,7 +18461,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQMS04</t>
+          <t>MQME004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -18476,7 +18476,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQMS05</t>
+          <t>MQME005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -18552,7 +18552,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -18582,7 +18582,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -18612,7 +18612,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -18642,7 +18642,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -18672,7 +18672,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -18702,7 +18702,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -18732,7 +18732,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -18762,7 +18762,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -18792,7 +18792,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -18822,7 +18822,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -18852,7 +18852,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -18882,7 +18882,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -18912,7 +18912,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -18942,7 +18942,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -18972,7 +18972,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -19002,7 +19002,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -19032,7 +19032,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -19062,7 +19062,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -19092,7 +19092,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -19122,7 +19122,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -19152,7 +19152,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -19182,7 +19182,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -19212,7 +19212,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -19242,7 +19242,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -19272,7 +19272,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MQME12</t>
+          <t>MQME014</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -19302,7 +19302,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -19332,7 +19332,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -19362,7 +19362,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -19392,7 +19392,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -19422,7 +19422,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -19452,7 +19452,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -19482,7 +19482,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -19512,7 +19512,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -19542,7 +19542,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -19572,7 +19572,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -19602,7 +19602,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -19632,7 +19632,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -19662,7 +19662,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -19692,7 +19692,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -19722,7 +19722,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -19752,7 +19752,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -19782,7 +19782,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -19812,7 +19812,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -19842,7 +19842,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -19872,7 +19872,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -19902,7 +19902,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -19932,7 +19932,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -19962,7 +19962,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -19992,7 +19992,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -20022,7 +20022,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -20052,7 +20052,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -20082,7 +20082,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -20112,7 +20112,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -20142,7 +20142,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -20172,7 +20172,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -20202,7 +20202,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -20232,7 +20232,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -20262,7 +20262,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -20292,7 +20292,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -20322,7 +20322,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -20352,7 +20352,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -20382,7 +20382,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -20412,7 +20412,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -20442,7 +20442,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -20472,7 +20472,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -20502,7 +20502,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -20532,7 +20532,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -20562,7 +20562,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -20592,7 +20592,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -20622,7 +20622,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -20652,7 +20652,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -20682,7 +20682,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -20712,7 +20712,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -20742,7 +20742,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -20772,7 +20772,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -20802,7 +20802,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -20832,7 +20832,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -20862,7 +20862,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -20892,7 +20892,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -20922,7 +20922,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -20952,7 +20952,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -20982,7 +20982,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -21012,7 +21012,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -21042,7 +21042,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -21072,7 +21072,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -21102,7 +21102,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -21132,7 +21132,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -21162,7 +21162,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -21192,7 +21192,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -21222,7 +21222,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -21252,7 +21252,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -21282,7 +21282,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -21312,7 +21312,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -21342,7 +21342,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -21372,7 +21372,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -21402,7 +21402,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -21432,7 +21432,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -21462,7 +21462,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -21492,7 +21492,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -21522,7 +21522,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -21552,7 +21552,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -21582,7 +21582,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -21612,7 +21612,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -21642,7 +21642,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -21672,7 +21672,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -21702,7 +21702,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -21732,7 +21732,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -21762,7 +21762,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MQME01</t>
+          <t>MQME008</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -21792,7 +21792,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -21826,7 +21826,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -21860,7 +21860,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -21894,7 +21894,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MQME15</t>
+          <t>MQME010</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -21928,7 +21928,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MQME16</t>
+          <t>MQME011</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -21962,7 +21962,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>MQME16</t>
+          <t>MQME011</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -21996,7 +21996,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MQME16</t>
+          <t>MQME011</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -22030,7 +22030,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MQME16</t>
+          <t>MQME011</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -22072,7 +22072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22100,45 +22100,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MQME00</t>
+          <t>MQME006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Total number of columns</t>
+          <t>Total number of length-required columns</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>288</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MQMEA1</t>
+          <t>MQME007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Total number of length-required columns</t>
+          <t>Total number of NUMBER columns</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MQMEA2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Total number of NUMBER columns</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
         <v>155</v>
       </c>
     </row>
@@ -22153,7 +22138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22181,29 +22166,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IQME01</t>
+          <t>MQID001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Columns with comments</t>
+          <t>Table names in singular</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>71.18%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IQME02</t>
+          <t>MQID002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Columns with data type</t>
+          <t>Table with recommended name length</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -22215,29 +22200,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IQME03</t>
+          <t>MQID003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Length-required columns with data length</t>
+          <t>Columns with correct prefixes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>91.32%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IQME04</t>
+          <t>MQID004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NUMBER columns with valid scale</t>
+          <t>Columns with recommended name size</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -22249,29 +22234,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IQME05</t>
+          <t>MQID005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Columns with valid num_distinct</t>
+          <t>Columns with comments</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>71.18%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IQME06</t>
+          <t>MQID006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Columns with valid num_nulls</t>
+          <t>Table with standard PK prefixes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -22283,15 +22268,83 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IQME07</t>
+          <t>MQID007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Columns with valid density</t>
+          <t>Table with standard FK prefixes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>94.03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MQID008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Table with standard UK prefixes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MQID009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NUMBER columns with valid scale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MQID010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Columns with valid num_distinct</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MQID011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Columns with valid num_nulls</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
